--- a/example_data/EPA/label_corrected/053883-00440-20180228_2018-12-08_121856.xlsx
+++ b/example_data/EPA/label_corrected/053883-00440-20180228_2018-12-08_121856.xlsx
@@ -742,7 +742,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
